--- a/Processed Datasets/Aircraft Statistics.xlsx
+++ b/Processed Datasets/Aircraft Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyeske/Desktop/Fall 2025/Optimization Methods/Project/Processed Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FBFFBC-6087-374C-8A4C-C76E5767AB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A9756C-C063-6F41-B5A5-B7C680DAF885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="760" windowWidth="25560" windowHeight="17380" xr2:uid="{1D525CA1-4A2B-564D-A885-570AD0F4254D}"/>
   </bookViews>
@@ -116,9 +116,6 @@
     <t>Aircraft</t>
   </si>
   <si>
-    <t>Full 2024</t>
-  </si>
-  <si>
     <t>Total Flying Time (days)</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Take-off Length (m)</t>
+  </si>
+  <si>
+    <t>System-wide - 2024</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,25 +507,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,7 +854,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -884,20 +875,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
+        <v>27</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -907,7 +898,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>20</v>
@@ -916,7 +907,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>22</v>
@@ -928,10 +919,10 @@
         <v>24</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -1605,235 +1596,235 @@
       <c r="B22" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Processed Datasets/Aircraft Statistics.xlsx
+++ b/Processed Datasets/Aircraft Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyeske/Desktop/Fall 2025/Optimization Methods/Project/Processed Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A9756C-C063-6F41-B5A5-B7C680DAF885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1180DDB8-054B-6E48-A63A-5F5E5358FB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="760" windowWidth="25560" windowHeight="17380" xr2:uid="{1D525CA1-4A2B-564D-A885-570AD0F4254D}"/>
   </bookViews>
@@ -116,9 +116,6 @@
     <t>Aircraft</t>
   </si>
   <si>
-    <t>Total Flying Time (days)</t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
@@ -132,13 +129,16 @@
   </si>
   <si>
     <t>System-wide - 2024</t>
+  </si>
+  <si>
+    <t>Total Block Time (days)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,13 +166,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -486,27 +479,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,6 +493,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -854,7 +847,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -869,26 +862,26 @@
     <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="24" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="4"/>
-    <col min="11" max="11" width="15" style="4" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" style="4" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -898,7 +891,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>20</v>
@@ -907,7 +900,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>22</v>
@@ -918,11 +911,11 @@
       <c r="I2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>30</v>
+      <c r="J2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -954,10 +947,10 @@
       <c r="I3" s="25">
         <v>1279</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="26">
         <v>6300</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="34">
         <v>1700</v>
       </c>
     </row>
@@ -989,10 +982,10 @@
       <c r="I4" s="16">
         <v>1597</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="26">
         <v>7400</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="34">
         <v>1900</v>
       </c>
     </row>
@@ -1024,10 +1017,10 @@
       <c r="I5" s="16">
         <v>752</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <v>6950</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="34">
         <v>1200</v>
       </c>
     </row>
@@ -1059,10 +1052,10 @@
       <c r="I6" s="16">
         <v>1007</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <v>6200</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="34">
         <v>1200</v>
       </c>
     </row>
@@ -1094,10 +1087,10 @@
       <c r="I7" s="16">
         <v>1362</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <v>5950</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="34">
         <v>1900</v>
       </c>
     </row>
@@ -1129,10 +1122,10 @@
       <c r="I8" s="16">
         <v>1822</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="26">
         <v>13400</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="34">
         <v>2400</v>
       </c>
     </row>
@@ -1164,10 +1157,10 @@
       <c r="I9" s="16">
         <v>1865</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <v>13600</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="34">
         <v>2900</v>
       </c>
     </row>
@@ -1199,10 +1192,10 @@
       <c r="I10" s="16">
         <v>509</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="26">
         <v>1300</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="34">
         <v>1000</v>
       </c>
     </row>
@@ -1234,10 +1227,10 @@
       <c r="I11" s="16">
         <v>447</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="26">
         <v>1500</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="34">
         <v>1000</v>
       </c>
     </row>
@@ -1269,10 +1262,10 @@
       <c r="I12" s="16">
         <v>390</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="26">
         <v>1750</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="34">
         <v>1000</v>
       </c>
     </row>
@@ -1304,10 +1297,10 @@
       <c r="I13" s="16">
         <v>1198</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="26">
         <v>6500</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="34">
         <v>1700</v>
       </c>
     </row>
@@ -1339,10 +1332,10 @@
       <c r="I14" s="16">
         <v>1743</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="26">
         <v>4600</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="34">
         <v>1500</v>
       </c>
     </row>
@@ -1374,10 +1367,10 @@
       <c r="I15" s="16">
         <v>1042</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <v>4600</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="34">
         <v>1500</v>
       </c>
     </row>
@@ -1409,10 +1402,10 @@
       <c r="I16" s="16">
         <v>707</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="26">
         <v>6100</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="34">
         <v>1200</v>
       </c>
     </row>
@@ -1444,10 +1437,10 @@
       <c r="I17" s="16">
         <v>1012</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="26">
         <v>5800</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="34">
         <v>1200</v>
       </c>
     </row>
@@ -1479,10 +1472,10 @@
       <c r="I18" s="16">
         <v>2280</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="26">
         <v>14000</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="34">
         <v>2900</v>
       </c>
     </row>
@@ -1514,10 +1507,10 @@
       <c r="I19" s="16">
         <v>312</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="26">
         <v>1950</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="35">
         <v>600</v>
       </c>
     </row>
@@ -1549,10 +1542,10 @@
       <c r="I20" s="16">
         <v>549</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="26">
         <v>3700</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="34">
         <v>1200</v>
       </c>
     </row>
@@ -1584,10 +1577,10 @@
       <c r="I21" s="17">
         <v>781</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="27">
         <v>4800</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="36">
         <v>1200</v>
       </c>
     </row>
@@ -1596,26 +1589,26 @@
       <c r="B22" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>

--- a/Processed Datasets/Aircraft Statistics.xlsx
+++ b/Processed Datasets/Aircraft Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyeske/Desktop/Fall 2025/Optimization Methods/Project/Processed Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1180DDB8-054B-6E48-A63A-5F5E5358FB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C38D19C-1382-374A-A340-80F3F7872809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="760" windowWidth="25560" windowHeight="17380" xr2:uid="{1D525CA1-4A2B-564D-A885-570AD0F4254D}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>System-wide - 2024</t>
   </si>
   <si>
-    <t>Total Block Time (days)</t>
+    <t>Total Flying Time (days)</t>
   </si>
 </sst>
 </file>
@@ -489,12 +489,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,6 +502,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -847,7 +847,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -870,18 +870,18 @@
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -911,10 +911,10 @@
       <c r="I2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="31" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="3"/>
@@ -950,7 +950,7 @@
       <c r="J3" s="26">
         <v>6300</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="32">
         <v>1700</v>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="J4" s="26">
         <v>7400</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="32">
         <v>1900</v>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       <c r="J5" s="26">
         <v>6950</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="32">
         <v>1200</v>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       <c r="J6" s="26">
         <v>6200</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="32">
         <v>1200</v>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       <c r="J7" s="26">
         <v>5950</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="32">
         <v>1900</v>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       <c r="J8" s="26">
         <v>13400</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="32">
         <v>2400</v>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       <c r="J9" s="26">
         <v>13600</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="32">
         <v>2900</v>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       <c r="J10" s="26">
         <v>1300</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="32">
         <v>1000</v>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       <c r="J11" s="26">
         <v>1500</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="32">
         <v>1000</v>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       <c r="J12" s="26">
         <v>1750</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="32">
         <v>1000</v>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       <c r="J13" s="26">
         <v>6500</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="32">
         <v>1700</v>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       <c r="J14" s="26">
         <v>4600</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="32">
         <v>1500</v>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       <c r="J15" s="26">
         <v>4600</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="32">
         <v>1500</v>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       <c r="J16" s="26">
         <v>6100</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="32">
         <v>1200</v>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       <c r="J17" s="26">
         <v>5800</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="32">
         <v>1200</v>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       <c r="J18" s="26">
         <v>14000</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="32">
         <v>2900</v>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       <c r="J19" s="26">
         <v>1950</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="33">
         <v>600</v>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       <c r="J20" s="26">
         <v>3700</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="32">
         <v>1200</v>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       <c r="J21" s="27">
         <v>4800</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="34">
         <v>1200</v>
       </c>
     </row>
